--- a/biology/Zoologie/Centriscidae/Centriscidae.xlsx
+++ b/biology/Zoologie/Centriscidae/Centriscidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des centriscidés (ou Centriscidae) comprend 5 genres de poissons canif et de poissons crevette.
 </t>
@@ -511,7 +523,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les macroramphosidés sont parfois considérés comme une sous-famille des centriscidés.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                            (15 octobre 2014)[2] et World Register of Marine Species                               (15 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (15 octobre 2014) et World Register of Marine Species                               (15 octobre 2014) :
 genre Aeoliscus Jordan et Starks, 1902
 Aeoliscus punctulatus  (Bianconi, 1855)
 Aeoliscus strigatus (Günther, 1861)
@@ -562,8 +578,8 @@
 Notopogon lilliei Regan, 1914
 Notopogon macrosolen Barnard, 1925
 Notopogon xenosoma
-ITIS      (15 octobre 2014)[4] ne reconnaît que les genres Aeoliscus et Centriscus, et classe les autres parmi les Macroramphosidae, famille non reconnue par WoRMS et FishBase.
-Selon Paleobiology Database                   (16 mars 2019)[5] :
+ITIS      (15 octobre 2014) ne reconnaît que les genres Aeoliscus et Centriscus, et classe les autres parmi les Macroramphosidae, famille non reconnue par WoRMS et FishBase.
+Selon Paleobiology Database                   (16 mars 2019) :
 genre † Aeoliscoides Blot, 1980
 † Aeoliscoides longirostris de Blainville, 1818
 genre † Paramphisile Blot, 1980
